--- a/4node_spain/output_s.xlsx
+++ b/4node_spain/output_s.xlsx
@@ -445,7 +445,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1580832623313029</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>2.686985391030896</v>
@@ -454,7 +454,7 @@
         <v>1.017724647956738</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.8274378900505859</v>
       </c>
     </row>
   </sheetData>

--- a/4node_spain/output_s.xlsx
+++ b/4node_spain/output_s.xlsx
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.686985391030896</v>
+        <v>1.35427148362301</v>
       </c>
       <c r="C2" t="n">
-        <v>1.017724647956738</v>
+        <v>0.5399220128804783</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8274378900505859</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/4node_spain/output_s.xlsx
+++ b/4node_spain/output_s.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,18 +442,58 @@
           <t>i4</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>i5</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>i6</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>i7</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>i8</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>i9</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0.001183285792159792</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4613257385728005</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2240924011402907</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5809271786130042</v>
+      </c>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>1.35427148362301</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5399220128804783</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/4node_spain/output_s.xlsx
+++ b/4node_spain/output_s.xlsx
@@ -470,16 +470,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.001183285792159792</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4613257385728005</v>
+        <v>1.35427148362301</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2240924011402907</v>
+        <v>0.5399220165771437</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5809271786130042</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
